--- a/Code/Results/Cases/Case_5_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.486315605737843</v>
+        <v>1.28222890584766</v>
       </c>
       <c r="C2">
-        <v>1.061624850879184</v>
+        <v>0.5481659376659422</v>
       </c>
       <c r="D2">
-        <v>0.004820032940701768</v>
+        <v>0.04427475039739415</v>
       </c>
       <c r="E2">
-        <v>0.03484010466631027</v>
+        <v>0.0908676865586191</v>
       </c>
       <c r="F2">
-        <v>2.928152839068815</v>
+        <v>3.156006502200995</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.41691691325731</v>
+        <v>1.56739384145051</v>
       </c>
       <c r="J2">
-        <v>0.09345560759446414</v>
+        <v>0.1622475285559801</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6921590772272879</v>
+        <v>0.5066399124069534</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.147284314380784</v>
+        <v>1.200853625392824</v>
       </c>
       <c r="C3">
-        <v>0.9172859336791248</v>
+        <v>0.5139791758210492</v>
       </c>
       <c r="D3">
-        <v>0.004502908997961796</v>
+        <v>0.04430237240150681</v>
       </c>
       <c r="E3">
-        <v>0.03360473676097264</v>
+        <v>0.09104512587838087</v>
       </c>
       <c r="F3">
-        <v>2.679755253732154</v>
+        <v>3.109600644876309</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.317255009807738</v>
+        <v>1.549139059382128</v>
       </c>
       <c r="J3">
-        <v>0.08908289322993568</v>
+        <v>0.161989779380562</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6024292670458493</v>
+        <v>0.4871025092023373</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.942426002474122</v>
+        <v>1.151708354095263</v>
       </c>
       <c r="C4">
-        <v>0.8304324484653876</v>
+        <v>0.493347295189551</v>
       </c>
       <c r="D4">
-        <v>0.004319853079647995</v>
+        <v>0.04432452183390856</v>
       </c>
       <c r="E4">
-        <v>0.03289008135802973</v>
+        <v>0.09118347383091319</v>
       </c>
       <c r="F4">
-        <v>2.53334921203377</v>
+        <v>3.082774053227766</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.259049961685363</v>
+        <v>1.538704150164577</v>
       </c>
       <c r="J4">
-        <v>0.08655883461148051</v>
+        <v>0.1618953660720308</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5483959553769395</v>
+        <v>0.4754341351724847</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859657628157521</v>
+        <v>1.131886617910197</v>
       </c>
       <c r="C5">
-        <v>0.7954231126175557</v>
+        <v>0.4850291901934156</v>
       </c>
       <c r="D5">
-        <v>0.004247719840547282</v>
+        <v>0.04433485433507967</v>
       </c>
       <c r="E5">
-        <v>0.03260925210736154</v>
+        <v>0.09124725632203301</v>
       </c>
       <c r="F5">
-        <v>2.475071148484616</v>
+        <v>3.072258635838764</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.236010315563249</v>
+        <v>1.534645015360184</v>
       </c>
       <c r="J5">
-        <v>0.08556748677148107</v>
+        <v>0.1618729085125388</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5266099930655415</v>
+        <v>0.4707613769008319</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845953800381864</v>
+        <v>1.128607617262531</v>
       </c>
       <c r="C6">
-        <v>0.7896313589130557</v>
+        <v>0.4836533638363392</v>
       </c>
       <c r="D6">
-        <v>0.004235878368853641</v>
+        <v>0.04433664899429268</v>
       </c>
       <c r="E6">
-        <v>0.03256323127049932</v>
+        <v>0.0912582949277585</v>
       </c>
       <c r="F6">
-        <v>2.46547346359165</v>
+        <v>3.070537650114417</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.232223648639845</v>
+        <v>1.533982626986948</v>
       </c>
       <c r="J6">
-        <v>0.08540503403127886</v>
+        <v>0.1618701457199236</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.523005596752391</v>
+        <v>0.4699904280438005</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.941307021291436</v>
+        <v>1.151440200643094</v>
       </c>
       <c r="C7">
-        <v>0.8299588216490292</v>
+        <v>0.4932347526296326</v>
       </c>
       <c r="D7">
-        <v>0.004318870867514146</v>
+        <v>0.04432465588941081</v>
       </c>
       <c r="E7">
-        <v>0.03288625268675283</v>
+        <v>0.09118430402685718</v>
       </c>
       <c r="F7">
-        <v>2.532557844164216</v>
+        <v>3.082630555006389</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.258736580656731</v>
+        <v>1.538648626900411</v>
       </c>
       <c r="J7">
-        <v>0.08654531825818879</v>
+        <v>0.1618949984003066</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5481012410744697</v>
+        <v>0.4753707841542649</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368655838441327</v>
+        <v>1.254000162951002</v>
       </c>
       <c r="C8">
-        <v>1.011450458140757</v>
+        <v>0.5363034081219098</v>
       </c>
       <c r="D8">
-        <v>0.00470796763078285</v>
+        <v>0.04428319819876947</v>
       </c>
       <c r="E8">
-        <v>0.03440464668463328</v>
+        <v>0.09092277268183935</v>
       </c>
       <c r="F8">
-        <v>2.841140419349131</v>
+        <v>3.139658294903114</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.381888034146115</v>
+        <v>1.56093820798759</v>
       </c>
       <c r="J8">
-        <v>0.09191249721546058</v>
+        <v>0.1621453821331045</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6609786389355889</v>
+        <v>0.4998352789478773</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.238968188832928</v>
+        <v>1.461667651512073</v>
       </c>
       <c r="C9">
-        <v>1.384518106488827</v>
+        <v>0.623646004107627</v>
       </c>
       <c r="D9">
-        <v>0.005588203254889734</v>
+        <v>0.04424303362808257</v>
       </c>
       <c r="E9">
-        <v>0.03776220800580354</v>
+        <v>0.09064272450688726</v>
       </c>
       <c r="F9">
-        <v>3.502479309856739</v>
+        <v>3.264836396595513</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.650716008112525</v>
+        <v>1.610850791761791</v>
       </c>
       <c r="J9">
-        <v>0.1038750052500816</v>
+        <v>0.1631448726829419</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8924643606207781</v>
+        <v>0.5504225436411758</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.907662736635359</v>
+        <v>1.618315520526835</v>
       </c>
       <c r="C10">
-        <v>1.674028390389026</v>
+        <v>0.6896348235301275</v>
       </c>
       <c r="D10">
-        <v>0.006347473566450823</v>
+        <v>0.04423858127484825</v>
       </c>
       <c r="E10">
-        <v>0.04051121473566965</v>
+        <v>0.09057838001977103</v>
       </c>
       <c r="F10">
-        <v>4.034846216104796</v>
+        <v>3.365123124212118</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.870607299678568</v>
+        <v>1.651397602501618</v>
       </c>
       <c r="J10">
-        <v>0.1137952426397391</v>
+        <v>0.1641920994010704</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.071438350314047</v>
+        <v>0.5892043350370813</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.220755443031464</v>
+        <v>1.690483181500269</v>
       </c>
       <c r="C11">
-        <v>1.81039336234636</v>
+        <v>0.7200632040289747</v>
       </c>
       <c r="D11">
-        <v>0.006728863700318222</v>
+        <v>0.04424200005883705</v>
       </c>
       <c r="E11">
-        <v>0.04183631792176712</v>
+        <v>0.09057971415337462</v>
       </c>
       <c r="F11">
-        <v>4.290336877723547</v>
+        <v>3.412592780672696</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.977005101767332</v>
+        <v>1.670705889722925</v>
       </c>
       <c r="J11">
-        <v>0.1186207251566458</v>
+        <v>0.1647371099160964</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.155508701184161</v>
+        <v>0.6072033333616247</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.340843399648861</v>
+        <v>1.717943016845368</v>
       </c>
       <c r="C12">
-        <v>1.862831403389293</v>
+        <v>0.7316455331157954</v>
       </c>
       <c r="D12">
-        <v>0.006879658828909285</v>
+        <v>0.04424407802898411</v>
       </c>
       <c r="E12">
-        <v>0.04235011210957218</v>
+        <v>0.09058461136794094</v>
       </c>
       <c r="F12">
-        <v>4.38931433497325</v>
+        <v>3.430837209423004</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.018358543579183</v>
+        <v>1.678143188681929</v>
       </c>
       <c r="J12">
-        <v>0.1204995253629093</v>
+        <v>0.1649534087570288</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.187796001844021</v>
+        <v>0.614070774168809</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.314908084189369</v>
+        <v>1.712023185112514</v>
       </c>
       <c r="C13">
-        <v>1.851500105911782</v>
+        <v>0.7291483997607315</v>
       </c>
       <c r="D13">
-        <v>0.006846877524298467</v>
+        <v>0.04424359564936564</v>
       </c>
       <c r="E13">
-        <v>0.04223890089655313</v>
+        <v>0.09058336146806134</v>
       </c>
       <c r="F13">
-        <v>4.367893134574132</v>
+        <v>3.426895948897624</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.009402484624388</v>
+        <v>1.676535819698387</v>
       </c>
       <c r="J13">
-        <v>0.1200924875183489</v>
+        <v>0.1649063831865263</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.180821036062724</v>
+        <v>0.6125894479266094</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.230603010636116</v>
+        <v>1.692739677315501</v>
       </c>
       <c r="C14">
-        <v>1.814690638000968</v>
+        <v>0.7210148865999031</v>
       </c>
       <c r="D14">
-        <v>0.006741134352436173</v>
+        <v>0.04424215531068088</v>
       </c>
       <c r="E14">
-        <v>0.04187833943339569</v>
+        <v>0.09058002907764795</v>
       </c>
       <c r="F14">
-        <v>4.298433178219938</v>
+        <v>3.414088359177612</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.980385050080287</v>
+        <v>1.671315233410567</v>
       </c>
       <c r="J14">
-        <v>0.1187742223116075</v>
+        <v>0.1647547059618901</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.158155505575479</v>
+        <v>0.6077672858467622</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.179170476722334</v>
+        <v>1.680945127951418</v>
       </c>
       <c r="C15">
-        <v>1.792252065167816</v>
+        <v>0.7160406830379884</v>
       </c>
       <c r="D15">
-        <v>0.006677232679365375</v>
+        <v>0.04424137509681758</v>
       </c>
       <c r="E15">
-        <v>0.04165908998085399</v>
+        <v>0.09057855960243266</v>
       </c>
       <c r="F15">
-        <v>4.25618731642794</v>
+        <v>3.406278418685076</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.962754198764642</v>
+        <v>1.668133884873839</v>
       </c>
       <c r="J15">
-        <v>0.1179736630636299</v>
+        <v>0.1646630919546013</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.144333293972139</v>
+        <v>0.6048203020945238</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.887400751072732</v>
+        <v>1.613617542778741</v>
       </c>
       <c r="C16">
-        <v>1.665221059630312</v>
+        <v>0.6876545737663378</v>
       </c>
       <c r="D16">
-        <v>0.006323370205713719</v>
+        <v>0.04423846743398996</v>
       </c>
       <c r="E16">
-        <v>0.0404262222159435</v>
+        <v>0.09057890790666789</v>
       </c>
       <c r="F16">
-        <v>4.018443025458993</v>
+        <v>3.362058314913156</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.8637941889709</v>
+        <v>1.650153262963173</v>
       </c>
       <c r="J16">
-        <v>0.113486715224532</v>
+        <v>0.164157866566363</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.066003315633239</v>
+        <v>0.5880352648396254</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.710853379008256</v>
+        <v>1.572547427185555</v>
       </c>
       <c r="C17">
-        <v>1.588572164772643</v>
+        <v>0.6703461511013415</v>
       </c>
       <c r="D17">
-        <v>0.006116287766984474</v>
+        <v>0.04423807830434012</v>
       </c>
       <c r="E17">
-        <v>0.03968985353095889</v>
+        <v>0.09058695373834702</v>
       </c>
       <c r="F17">
-        <v>3.876214056877586</v>
+        <v>3.33540623705926</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.804814560354544</v>
+        <v>1.639344934870437</v>
       </c>
       <c r="J17">
-        <v>0.1108185665246353</v>
+        <v>0.1638655363571289</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.018676860085627</v>
+        <v>0.5778298106269659</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610128979734668</v>
+        <v>1.549010364526623</v>
       </c>
       <c r="C18">
-        <v>1.544916106505127</v>
+        <v>0.6604293188095198</v>
       </c>
       <c r="D18">
-        <v>0.006000483856536398</v>
+        <v>0.04423836686944815</v>
       </c>
       <c r="E18">
-        <v>0.03927324547625233</v>
+        <v>0.09059446266563675</v>
       </c>
       <c r="F18">
-        <v>3.795639613952176</v>
+        <v>3.320250504437297</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.771480458296693</v>
+        <v>1.633209440244983</v>
       </c>
       <c r="J18">
-        <v>0.109312910407418</v>
+        <v>0.1637038518785445</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9917010067009286</v>
+        <v>0.5719934852050272</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.576159497516471</v>
+        <v>1.541055754982892</v>
       </c>
       <c r="C19">
-        <v>1.530205218096626</v>
+        <v>0.6570782393871468</v>
       </c>
       <c r="D19">
-        <v>0.00596180933745849</v>
+        <v>0.04423855256556664</v>
       </c>
       <c r="E19">
-        <v>0.03913334346820641</v>
+        <v>0.09059750018164969</v>
       </c>
       <c r="F19">
-        <v>3.768561236738037</v>
+        <v>3.315148804055866</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.760291197599571</v>
+        <v>1.631145961996197</v>
       </c>
       <c r="J19">
-        <v>0.1088079167902549</v>
+        <v>0.1636502157051822</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9826075690374338</v>
+        <v>0.5700231651224854</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.729560508270367</v>
+        <v>1.576910567530604</v>
       </c>
       <c r="C20">
-        <v>1.596686159190938</v>
+        <v>0.6721846700883134</v>
       </c>
       <c r="D20">
-        <v>0.006137982103513906</v>
+        <v>0.0442380666957094</v>
       </c>
       <c r="E20">
-        <v>0.03976751510301924</v>
+        <v>0.09058579912064069</v>
       </c>
       <c r="F20">
-        <v>3.891224947392459</v>
+        <v>3.338225384131732</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.811031042016637</v>
+        <v>1.640487088095313</v>
       </c>
       <c r="J20">
-        <v>0.1110995506128845</v>
+        <v>0.1638959868817054</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.023689003570453</v>
+        <v>0.5789127210671055</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.255321872008494</v>
+        <v>1.698400133904727</v>
       </c>
       <c r="C21">
-        <v>1.825479645128326</v>
+        <v>0.7234022678422889</v>
       </c>
       <c r="D21">
-        <v>0.006772010104804771</v>
+        <v>0.04424255710796676</v>
       </c>
       <c r="E21">
-        <v>0.04198390806528707</v>
+        <v>0.09058088875307391</v>
       </c>
       <c r="F21">
-        <v>4.318772026115994</v>
+        <v>3.417842943363695</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.988878043937191</v>
+        <v>1.672845223313487</v>
       </c>
       <c r="J21">
-        <v>0.1191599743756555</v>
+        <v>0.1647989877621541</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.164800052017569</v>
+        <v>0.6091822687481709</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.607978075454469</v>
+        <v>1.77856760510025</v>
       </c>
       <c r="C22">
-        <v>1.979744942621494</v>
+        <v>0.7572246718008273</v>
       </c>
       <c r="D22">
-        <v>0.007224250569988655</v>
+        <v>0.04425005828220119</v>
       </c>
       <c r="E22">
-        <v>0.04350316846072388</v>
+        <v>0.09060327562828974</v>
       </c>
       <c r="F22">
-        <v>4.611371012805165</v>
+        <v>3.471445160357888</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.111391888978531</v>
+        <v>1.694726350248899</v>
       </c>
       <c r="J22">
-        <v>0.124731841415489</v>
+        <v>0.1654469669526222</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.25969757168906</v>
+        <v>0.6292661339806642</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.41883994009288</v>
+        <v>1.73571020109847</v>
       </c>
       <c r="C23">
-        <v>1.896929396750579</v>
+        <v>0.739140824568949</v>
       </c>
       <c r="D23">
-        <v>0.006978958666098212</v>
+        <v>0.04424563669063675</v>
       </c>
       <c r="E23">
-        <v>0.04268536506951826</v>
+        <v>0.09058898814584637</v>
       </c>
       <c r="F23">
-        <v>4.453883539508979</v>
+        <v>3.442692265771655</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.045374639237735</v>
+        <v>1.682980385206662</v>
       </c>
       <c r="J23">
-        <v>0.1217278042460137</v>
+        <v>0.1650958222088192</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.208778368277905</v>
+        <v>0.6185193630266923</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.7211006192083</v>
+        <v>1.574937759198178</v>
       </c>
       <c r="C24">
-        <v>1.593016553427674</v>
+        <v>0.671353369782878</v>
       </c>
       <c r="D24">
-        <v>0.0061281640561619</v>
+        <v>0.04423807034794081</v>
       </c>
       <c r="E24">
-        <v>0.03973238340677376</v>
+        <v>0.09058631214190349</v>
       </c>
       <c r="F24">
-        <v>3.88443482510641</v>
+        <v>3.336950328093394</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.808218793385038</v>
+        <v>1.639970476672218</v>
       </c>
       <c r="J24">
-        <v>0.1109724300445549</v>
+        <v>0.1638822003304696</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.021422293665999</v>
+        <v>0.5784230409499216</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.99915241179724</v>
+        <v>1.404778708955973</v>
       </c>
       <c r="C25">
-        <v>1.281283262527552</v>
+        <v>0.5997025805866087</v>
       </c>
       <c r="D25">
-        <v>0.005333702657446704</v>
+        <v>0.04424949877493978</v>
       </c>
       <c r="E25">
-        <v>0.0368083729260853</v>
+        <v>0.09069361587740232</v>
       </c>
       <c r="F25">
-        <v>3.316383115918825</v>
+        <v>3.229524848490996</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.574517374640877</v>
+        <v>1.596674322333854</v>
       </c>
       <c r="J25">
-        <v>0.100460502236281</v>
+        <v>0.1628197483952007</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8284960943844268</v>
+        <v>0.5364553647189538</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.28222890584766</v>
+        <v>2.4863156057379</v>
       </c>
       <c r="C2">
-        <v>0.5481659376659422</v>
+        <v>1.0616248508789</v>
       </c>
       <c r="D2">
-        <v>0.04427475039739415</v>
+        <v>0.004820032940463959</v>
       </c>
       <c r="E2">
-        <v>0.0908676865586191</v>
+        <v>0.03484010466630849</v>
       </c>
       <c r="F2">
-        <v>3.156006502200995</v>
+        <v>2.928152839068844</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.56739384145051</v>
+        <v>1.41691691325731</v>
       </c>
       <c r="J2">
-        <v>0.1622475285559801</v>
+        <v>0.09345560759445704</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5066399124069534</v>
+        <v>0.6921590772272808</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.200853625392824</v>
+        <v>2.147284314380897</v>
       </c>
       <c r="C3">
-        <v>0.5139791758210492</v>
+        <v>0.917285933679068</v>
       </c>
       <c r="D3">
-        <v>0.04430237240150681</v>
+        <v>0.004502908998070598</v>
       </c>
       <c r="E3">
-        <v>0.09104512587838087</v>
+        <v>0.03360473676102771</v>
       </c>
       <c r="F3">
-        <v>3.109600644876309</v>
+        <v>2.679755253732196</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.549139059382128</v>
+        <v>1.317255009807738</v>
       </c>
       <c r="J3">
-        <v>0.161989779380562</v>
+        <v>0.08908289322997831</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4871025092023373</v>
+        <v>0.6024292670458564</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.151708354095263</v>
+        <v>1.942426002473894</v>
       </c>
       <c r="C4">
-        <v>0.493347295189551</v>
+        <v>0.830432448465757</v>
       </c>
       <c r="D4">
-        <v>0.04432452183390856</v>
+        <v>0.004319853079652436</v>
       </c>
       <c r="E4">
-        <v>0.09118347383091319</v>
+        <v>0.03289008135795868</v>
       </c>
       <c r="F4">
-        <v>3.082774053227766</v>
+        <v>2.533349212033755</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.538704150164577</v>
+        <v>1.259049961685363</v>
       </c>
       <c r="J4">
-        <v>0.1618953660720308</v>
+        <v>0.08655883461137748</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4754341351724847</v>
+        <v>0.5483959553769395</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.131886617910197</v>
+        <v>1.859657628157549</v>
       </c>
       <c r="C5">
-        <v>0.4850291901934156</v>
+        <v>0.7954231126176978</v>
       </c>
       <c r="D5">
-        <v>0.04433485433507967</v>
+        <v>0.004247719840855257</v>
       </c>
       <c r="E5">
-        <v>0.09124725632203301</v>
+        <v>0.03260925210738996</v>
       </c>
       <c r="F5">
-        <v>3.072258635838764</v>
+        <v>2.475071148484631</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.534645015360184</v>
+        <v>1.23601031556322</v>
       </c>
       <c r="J5">
-        <v>0.1618729085125388</v>
+        <v>0.08556748677141712</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4707613769008319</v>
+        <v>0.5266099930655415</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.128607617262531</v>
+        <v>1.84595380038192</v>
       </c>
       <c r="C6">
-        <v>0.4836533638363392</v>
+        <v>0.7896313589130841</v>
       </c>
       <c r="D6">
-        <v>0.04433664899429268</v>
+        <v>0.004235878368719082</v>
       </c>
       <c r="E6">
-        <v>0.0912582949277585</v>
+        <v>0.03256323127050997</v>
       </c>
       <c r="F6">
-        <v>3.070537650114417</v>
+        <v>2.465473463591664</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.533982626986948</v>
+        <v>1.232223648639845</v>
       </c>
       <c r="J6">
-        <v>0.1618701457199236</v>
+        <v>0.08540503403117583</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4699904280438005</v>
+        <v>0.5230055967523768</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.151440200643094</v>
+        <v>1.94130702129155</v>
       </c>
       <c r="C7">
-        <v>0.4932347526296326</v>
+        <v>0.8299588216491145</v>
       </c>
       <c r="D7">
-        <v>0.04432465588941081</v>
+        <v>0.004318870867496605</v>
       </c>
       <c r="E7">
-        <v>0.09118430402685718</v>
+        <v>0.03288625268674394</v>
       </c>
       <c r="F7">
-        <v>3.082630555006389</v>
+        <v>2.532557844164216</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.538648626900411</v>
+        <v>1.258736580656759</v>
       </c>
       <c r="J7">
-        <v>0.1618949984003066</v>
+        <v>0.08654531825817102</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4753707841542649</v>
+        <v>0.5481012410744697</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.254000162951002</v>
+        <v>2.368655838441327</v>
       </c>
       <c r="C8">
-        <v>0.5363034081219098</v>
+        <v>1.011450458141098</v>
       </c>
       <c r="D8">
-        <v>0.04428319819876947</v>
+        <v>0.004707967630878773</v>
       </c>
       <c r="E8">
-        <v>0.09092277268183935</v>
+        <v>0.03440464668465815</v>
       </c>
       <c r="F8">
-        <v>3.139658294903114</v>
+        <v>2.841140419349216</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.56093820798759</v>
+        <v>1.381888034146115</v>
       </c>
       <c r="J8">
-        <v>0.1621453821331045</v>
+        <v>0.09191249721542505</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4998352789478773</v>
+        <v>0.6609786389356032</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.461667651512073</v>
+        <v>3.238968188833098</v>
       </c>
       <c r="C9">
-        <v>0.623646004107627</v>
+        <v>1.384518106489224</v>
       </c>
       <c r="D9">
-        <v>0.04424303362808257</v>
+        <v>0.005588203254994539</v>
       </c>
       <c r="E9">
-        <v>0.09064272450688726</v>
+        <v>0.03776220800579111</v>
       </c>
       <c r="F9">
-        <v>3.264836396595513</v>
+        <v>3.502479309856739</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.610850791761791</v>
+        <v>1.650716008112525</v>
       </c>
       <c r="J9">
-        <v>0.1631448726829419</v>
+        <v>0.1038750052501527</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5504225436411758</v>
+        <v>0.8924643606207781</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.618315520526835</v>
+        <v>3.907662736635245</v>
       </c>
       <c r="C10">
-        <v>0.6896348235301275</v>
+        <v>1.674028390388912</v>
       </c>
       <c r="D10">
-        <v>0.04423858127484825</v>
+        <v>0.006347473566671091</v>
       </c>
       <c r="E10">
-        <v>0.09057838001977103</v>
+        <v>0.0405112147356661</v>
       </c>
       <c r="F10">
-        <v>3.365123124212118</v>
+        <v>4.034846216104796</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.651397602501618</v>
+        <v>1.870607299678596</v>
       </c>
       <c r="J10">
-        <v>0.1641920994010704</v>
+        <v>0.1137952426396609</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5892043350370813</v>
+        <v>1.071438350314047</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.690483181500269</v>
+        <v>4.220755443031521</v>
       </c>
       <c r="C11">
-        <v>0.7200632040289747</v>
+        <v>1.810393362346133</v>
       </c>
       <c r="D11">
-        <v>0.04424200005883705</v>
+        <v>0.006728863700475873</v>
       </c>
       <c r="E11">
-        <v>0.09057971415337462</v>
+        <v>0.04183631792170317</v>
       </c>
       <c r="F11">
-        <v>3.412592780672696</v>
+        <v>4.290336877723547</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.670705889722925</v>
+        <v>1.977005101767332</v>
       </c>
       <c r="J11">
-        <v>0.1647371099160964</v>
+        <v>0.1186207251565889</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6072033333616247</v>
+        <v>1.155508701184161</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.717943016845368</v>
+        <v>4.340843399648747</v>
       </c>
       <c r="C12">
-        <v>0.7316455331157954</v>
+        <v>1.862831403389293</v>
       </c>
       <c r="D12">
-        <v>0.04424407802898411</v>
+        <v>0.006879658828871538</v>
       </c>
       <c r="E12">
-        <v>0.09058461136794094</v>
+        <v>0.04235011210959172</v>
       </c>
       <c r="F12">
-        <v>3.430837209423004</v>
+        <v>4.389314334973278</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.678143188681929</v>
+        <v>2.018358543579197</v>
       </c>
       <c r="J12">
-        <v>0.1649534087570288</v>
+        <v>0.1204995253629093</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.614070774168809</v>
+        <v>1.187796001844035</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.712023185112514</v>
+        <v>4.314908084189256</v>
       </c>
       <c r="C13">
-        <v>0.7291483997607315</v>
+        <v>1.851500105911612</v>
       </c>
       <c r="D13">
-        <v>0.04424359564936564</v>
+        <v>0.006846877524214978</v>
       </c>
       <c r="E13">
-        <v>0.09058336146806134</v>
+        <v>0.04223890089652116</v>
       </c>
       <c r="F13">
-        <v>3.426895948897624</v>
+        <v>4.367893134574132</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.676535819698387</v>
+        <v>2.009402484624417</v>
       </c>
       <c r="J13">
-        <v>0.1649063831865263</v>
+        <v>0.1200924875182494</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6125894479266094</v>
+        <v>1.180821036062724</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692739677315501</v>
+        <v>4.23060301063623</v>
       </c>
       <c r="C14">
-        <v>0.7210148865999031</v>
+        <v>1.814690638000855</v>
       </c>
       <c r="D14">
-        <v>0.04424215531068088</v>
+        <v>0.00674113435260093</v>
       </c>
       <c r="E14">
-        <v>0.09058002907764795</v>
+        <v>0.04187833943333352</v>
       </c>
       <c r="F14">
-        <v>3.414088359177612</v>
+        <v>4.298433178219966</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.671315233410567</v>
+        <v>1.980385050080272</v>
       </c>
       <c r="J14">
-        <v>0.1647547059618901</v>
+        <v>0.1187742223116359</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6077672858467622</v>
+        <v>1.158155505575465</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.680945127951418</v>
+        <v>4.179170476722447</v>
       </c>
       <c r="C15">
-        <v>0.7160406830379884</v>
+        <v>1.7922520651681</v>
       </c>
       <c r="D15">
-        <v>0.04424137509681758</v>
+        <v>0.006677232679142886</v>
       </c>
       <c r="E15">
-        <v>0.09057855960243266</v>
+        <v>0.04165908998082024</v>
       </c>
       <c r="F15">
-        <v>3.406278418685076</v>
+        <v>4.256187316427969</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.668133884873839</v>
+        <v>1.962754198764657</v>
       </c>
       <c r="J15">
-        <v>0.1646630919546013</v>
+        <v>0.1179736630635233</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6048203020945238</v>
+        <v>1.144333293972153</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.613617542778741</v>
+        <v>3.887400751072676</v>
       </c>
       <c r="C16">
-        <v>0.6876545737663378</v>
+        <v>1.665221059630426</v>
       </c>
       <c r="D16">
-        <v>0.04423846743398996</v>
+        <v>0.006323370205555179</v>
       </c>
       <c r="E16">
-        <v>0.09057890790666789</v>
+        <v>0.04042622221600212</v>
       </c>
       <c r="F16">
-        <v>3.362058314913156</v>
+        <v>4.018443025459021</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.650153262963173</v>
+        <v>1.863794188970886</v>
       </c>
       <c r="J16">
-        <v>0.164157866566363</v>
+        <v>0.1134867152245107</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5880352648396254</v>
+        <v>1.06600331563326</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.572547427185555</v>
+        <v>3.710853379007972</v>
       </c>
       <c r="C17">
-        <v>0.6703461511013415</v>
+        <v>1.588572164772302</v>
       </c>
       <c r="D17">
-        <v>0.04423807830434012</v>
+        <v>0.006116287766826822</v>
       </c>
       <c r="E17">
-        <v>0.09058695373834702</v>
+        <v>0.03968985353094645</v>
       </c>
       <c r="F17">
-        <v>3.33540623705926</v>
+        <v>3.876214056877586</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.639344934870437</v>
+        <v>1.804814560354558</v>
       </c>
       <c r="J17">
-        <v>0.1638655363571289</v>
+        <v>0.1108185665246211</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5778298106269659</v>
+        <v>1.018676860085641</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.549010364526623</v>
+        <v>3.610128979734668</v>
       </c>
       <c r="C18">
-        <v>0.6604293188095198</v>
+        <v>1.544916106505184</v>
       </c>
       <c r="D18">
-        <v>0.04423836686944815</v>
+        <v>0.006000483856898331</v>
       </c>
       <c r="E18">
-        <v>0.09059446266563675</v>
+        <v>0.03927324547624877</v>
       </c>
       <c r="F18">
-        <v>3.320250504437297</v>
+        <v>3.795639613952176</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.633209440244983</v>
+        <v>1.771480458296693</v>
       </c>
       <c r="J18">
-        <v>0.1637038518785445</v>
+        <v>0.1093129104072759</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5719934852050272</v>
+        <v>0.9917010067009286</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541055754982892</v>
+        <v>3.576159497516414</v>
       </c>
       <c r="C19">
-        <v>0.6570782393871468</v>
+        <v>1.530205218096398</v>
       </c>
       <c r="D19">
-        <v>0.04423855256556664</v>
+        <v>0.005961809337593937</v>
       </c>
       <c r="E19">
-        <v>0.09059750018164969</v>
+        <v>0.03913334346824016</v>
       </c>
       <c r="F19">
-        <v>3.315148804055866</v>
+        <v>3.768561236738037</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.631145961996197</v>
+        <v>1.760291197599557</v>
       </c>
       <c r="J19">
-        <v>0.1636502157051822</v>
+        <v>0.1088079167900915</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5700231651224854</v>
+        <v>0.982607569037441</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.576910567530604</v>
+        <v>3.729560508270481</v>
       </c>
       <c r="C20">
-        <v>0.6721846700883134</v>
+        <v>1.596686159190881</v>
       </c>
       <c r="D20">
-        <v>0.0442380666957094</v>
+        <v>0.006137982103502804</v>
       </c>
       <c r="E20">
-        <v>0.09058579912064069</v>
+        <v>0.03976751510301568</v>
       </c>
       <c r="F20">
-        <v>3.338225384131732</v>
+        <v>3.891224947392487</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.640487088095313</v>
+        <v>1.811031042016651</v>
       </c>
       <c r="J20">
-        <v>0.1638959868817054</v>
+        <v>0.1110995506129058</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5789127210671055</v>
+        <v>1.023689003570439</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.698400133904727</v>
+        <v>4.255321872008381</v>
       </c>
       <c r="C21">
-        <v>0.7234022678422889</v>
+        <v>1.825479645128667</v>
       </c>
       <c r="D21">
-        <v>0.04424255710796676</v>
+        <v>0.006772010104783011</v>
       </c>
       <c r="E21">
-        <v>0.09058088875307391</v>
+        <v>0.04198390806530305</v>
       </c>
       <c r="F21">
-        <v>3.417842943363695</v>
+        <v>4.318772026116022</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.672845223313487</v>
+        <v>1.988878043937191</v>
       </c>
       <c r="J21">
-        <v>0.1647989877621541</v>
+        <v>0.1191599743756839</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6091822687481709</v>
+        <v>1.164800052017597</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.77856760510025</v>
+        <v>4.60797807545481</v>
       </c>
       <c r="C22">
-        <v>0.7572246718008273</v>
+        <v>1.979744942621096</v>
       </c>
       <c r="D22">
-        <v>0.04425005828220119</v>
+        <v>0.00722425057036169</v>
       </c>
       <c r="E22">
-        <v>0.09060327562828974</v>
+        <v>0.04350316846076296</v>
       </c>
       <c r="F22">
-        <v>3.471445160357888</v>
+        <v>4.611371012805165</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.694726350248899</v>
+        <v>2.111391888978517</v>
       </c>
       <c r="J22">
-        <v>0.1654469669526222</v>
+        <v>0.1247318414154108</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6292661339806642</v>
+        <v>1.259697571689074</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.73571020109847</v>
+        <v>4.418839940093051</v>
       </c>
       <c r="C23">
-        <v>0.739140824568949</v>
+        <v>1.896929396750636</v>
       </c>
       <c r="D23">
-        <v>0.04424563669063675</v>
+        <v>0.006978958666232771</v>
       </c>
       <c r="E23">
-        <v>0.09058898814584637</v>
+        <v>0.04268536506950937</v>
       </c>
       <c r="F23">
-        <v>3.442692265771655</v>
+        <v>4.453883539509008</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.682980385206662</v>
+        <v>2.045374639237735</v>
       </c>
       <c r="J23">
-        <v>0.1650958222088192</v>
+        <v>0.1217278042459853</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6185193630266923</v>
+        <v>1.208778368277905</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.574937759198178</v>
+        <v>3.721100619208357</v>
       </c>
       <c r="C24">
-        <v>0.671353369782878</v>
+        <v>1.593016553427447</v>
       </c>
       <c r="D24">
-        <v>0.04423807034794081</v>
+        <v>0.006128164056043328</v>
       </c>
       <c r="E24">
-        <v>0.09058631214190349</v>
+        <v>0.03973238340675067</v>
       </c>
       <c r="F24">
-        <v>3.336950328093394</v>
+        <v>3.884434825106382</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.639970476672218</v>
+        <v>1.808218793385038</v>
       </c>
       <c r="J24">
-        <v>0.1638822003304696</v>
+        <v>0.1109724300444626</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5784230409499216</v>
+        <v>1.021422293666021</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.404778708955973</v>
+        <v>2.999152411797411</v>
       </c>
       <c r="C25">
-        <v>0.5997025805866087</v>
+        <v>1.281283262527893</v>
       </c>
       <c r="D25">
-        <v>0.04424949877493978</v>
+        <v>0.005333702657463135</v>
       </c>
       <c r="E25">
-        <v>0.09069361587740232</v>
+        <v>0.03680837292609773</v>
       </c>
       <c r="F25">
-        <v>3.229524848490996</v>
+        <v>3.316383115918825</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.596674322333854</v>
+        <v>1.574517374640848</v>
       </c>
       <c r="J25">
-        <v>0.1628197483952007</v>
+        <v>0.1004605022362597</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5364553647189538</v>
+        <v>0.8284960943844197</v>
       </c>
       <c r="N25">
         <v>0</v>
